--- a/target/test-classes/errands.xlsx
+++ b/target/test-classes/errands.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="282">
   <si>
     <t>METER_POINT_ID</t>
   </si>
@@ -536,12 +536,340 @@
   </si>
   <si>
     <t>dvfdvd</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7076</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1149</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3940</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8243</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5764</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5911</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7859</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1605</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6059</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3893</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6856</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-390</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3541</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4853</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5237</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6073</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1368</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8637</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6141</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9038</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7777</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6192</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6687</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-132</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7413</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-940</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8564</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2527</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7735</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9536</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4961</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2053</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7173</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-682</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9241</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7378</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1759</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-878</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2275</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8475</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2150</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-947</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-707</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1647</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1500</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1352</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6935</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3018</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9117</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5236</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5200</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-627</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-105</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2827</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5083</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8789</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2654</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7292</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5163</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7387</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9774</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9639</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6165</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-964</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5650</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-972</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3624</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2151</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1419</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6111</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7783</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5632</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9152</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-759</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8404</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7415</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1881</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2102</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3738</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2386</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8951</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4914</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2695</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5553</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8253</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8450</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2276</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5975</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8463</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4149</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6883</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7416</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-310</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8363</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2980</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1246</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1854</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3671</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4582</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7516</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4524</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8498</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9367</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7118</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6789</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3807</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5026</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-561</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1457</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,11 +1210,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="19" max="46" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="6.6640625" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="19" max="46" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
@@ -1040,7 +1368,7 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -1108,7 +1436,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -1176,7 +1504,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J4">
         <v>4906.7700000000004</v>
@@ -1223,7 +1551,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J5">
         <v>4907.7700000000004</v>
@@ -1270,7 +1598,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="J6">
         <v>4908.7700000000004</v>
@@ -1317,7 +1645,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J7">
         <v>4905.7700000000004</v>
@@ -1364,7 +1692,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="J8">
         <v>4905.7700000000004</v>
@@ -1411,7 +1739,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="J9">
         <v>4906.7700000000004</v>
@@ -1458,7 +1786,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J10">
         <v>4907.7700000000004</v>
@@ -1505,7 +1833,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="J11">
         <v>4908.7700000000004</v>
@@ -1552,7 +1880,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="J12">
         <v>4905.7700000000004</v>
@@ -1599,7 +1927,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="J13">
         <v>4905.7700000000004</v>
@@ -1646,7 +1974,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="J14">
         <v>4906.7700000000004</v>
@@ -1693,7 +2021,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="J15">
         <v>4907.7700000000004</v>
@@ -1734,7 +2062,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="J16">
         <v>4908.7700000000004</v>
@@ -1775,7 +2103,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="J17">
         <v>4905.7700000000004</v>
@@ -1816,7 +2144,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="J18">
         <v>4905.7700000000004</v>
@@ -1857,7 +2185,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="J19">
         <v>4906.7700000000004</v>
@@ -1898,7 +2226,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="J20">
         <v>4907.7700000000004</v>
@@ -1939,7 +2267,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J21">
         <v>4908.7700000000004</v>
@@ -1980,7 +2308,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="J22">
         <v>4905.7700000000004</v>
@@ -2021,7 +2349,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="J23">
         <v>4905.7700000000004</v>
@@ -2062,7 +2390,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="J24">
         <v>4906.7700000000004</v>
@@ -2103,7 +2431,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="J25">
         <v>4907.7700000000004</v>
@@ -2144,7 +2472,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="J26">
         <v>4908.7700000000004</v>
@@ -2185,7 +2513,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="J27">
         <v>4905.7700000000004</v>
@@ -2226,7 +2554,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="J28">
         <v>4905.7700000000004</v>
@@ -2267,7 +2595,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="J29">
         <v>4906.7700000000004</v>
@@ -2308,7 +2636,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="J30">
         <v>4907.7700000000004</v>
@@ -2349,7 +2677,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="J31">
         <v>4908.7700000000004</v>
@@ -2390,7 +2718,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="J32">
         <v>4905.7700000000004</v>
@@ -2431,7 +2759,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="J33">
         <v>4905.7700000000004</v>
@@ -2472,7 +2800,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="J34">
         <v>4906.7700000000004</v>
@@ -2513,7 +2841,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="J35">
         <v>4907.7700000000004</v>
@@ -2554,7 +2882,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="J36">
         <v>4908.7700000000004</v>
@@ -2595,7 +2923,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="J37">
         <v>4905.7700000000004</v>
@@ -2636,7 +2964,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="J38">
         <v>4905.7700000000004</v>
@@ -2677,7 +3005,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="J39">
         <v>4906.7700000000004</v>
@@ -2718,7 +3046,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="J40">
         <v>4907.7700000000004</v>
@@ -2759,7 +3087,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="J41">
         <v>4908.7700000000004</v>
@@ -2800,7 +3128,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="J42">
         <v>4905.7700000000004</v>
@@ -2841,7 +3169,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="J43">
         <v>4905.7700000000004</v>
@@ -2882,7 +3210,7 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="J44">
         <v>4906.7700000000004</v>
@@ -2923,7 +3251,7 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="J45">
         <v>4907.7700000000004</v>
@@ -2964,7 +3292,7 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="J46">
         <v>4908.7700000000004</v>
@@ -3005,7 +3333,7 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="J47">
         <v>4905.7700000000004</v>
@@ -3046,7 +3374,7 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="J48">
         <v>4905.7700000000004</v>
@@ -3087,7 +3415,7 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="J49">
         <v>4906.7700000000004</v>
@@ -3128,7 +3456,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="J50">
         <v>4907.7700000000004</v>
@@ -3169,7 +3497,7 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="J51">
         <v>4908.7700000000004</v>
@@ -3210,7 +3538,7 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="J52">
         <v>4905.7700000000004</v>
@@ -3251,7 +3579,7 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="J53">
         <v>4905.7700000000004</v>
@@ -3292,7 +3620,7 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="J54">
         <v>4906.7700000000004</v>
@@ -3333,7 +3661,7 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="J55">
         <v>4907.7700000000004</v>
@@ -3374,7 +3702,7 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="J56">
         <v>4908.7700000000004</v>
@@ -3415,7 +3743,7 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="J57">
         <v>4905.7700000000004</v>
@@ -3456,7 +3784,7 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="J58">
         <v>4905.7700000000004</v>
@@ -3497,7 +3825,7 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="J59">
         <v>4906.7700000000004</v>
@@ -3538,7 +3866,7 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="J60">
         <v>4907.7700000000004</v>
@@ -3579,7 +3907,7 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="J61">
         <v>4908.7700000000004</v>
@@ -3620,7 +3948,7 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="J62">
         <v>4905.7700000000004</v>
@@ -3661,7 +3989,7 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="J63">
         <v>4905.7700000000004</v>
@@ -3702,7 +4030,7 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="J64">
         <v>4906.7700000000004</v>
@@ -3743,7 +4071,7 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="J65">
         <v>4907.7700000000004</v>
@@ -3784,7 +4112,7 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="J66">
         <v>4908.7700000000004</v>
@@ -3825,7 +4153,7 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="J67">
         <v>4905.7700000000004</v>
@@ -3866,7 +4194,7 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="J68">
         <v>4905.7700000000004</v>
@@ -3907,7 +4235,7 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="J69">
         <v>4906.7700000000004</v>
@@ -3948,7 +4276,7 @@
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="J70">
         <v>4907.7700000000004</v>
@@ -3989,7 +4317,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="J71">
         <v>4908.7700000000004</v>
@@ -4030,7 +4358,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="J72">
         <v>4905.7700000000004</v>
@@ -4071,7 +4399,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="J73">
         <v>4905.7700000000004</v>
@@ -4112,7 +4440,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="J74">
         <v>4906.7700000000004</v>
@@ -4153,7 +4481,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="J75">
         <v>4907.7700000000004</v>
@@ -4194,7 +4522,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="J76">
         <v>4908.7700000000004</v>
@@ -4235,7 +4563,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="J77">
         <v>4905.7700000000004</v>
@@ -4276,7 +4604,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="J78">
         <v>4905.7700000000004</v>
@@ -4317,7 +4645,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="J79">
         <v>4906.7700000000004</v>
@@ -4358,7 +4686,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="J80">
         <v>4907.7700000000004</v>
@@ -4399,7 +4727,7 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="J81">
         <v>4908.7700000000004</v>
@@ -4440,7 +4768,7 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="J82">
         <v>4905.7700000000004</v>
@@ -4481,7 +4809,7 @@
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="J83">
         <v>4905.7700000000004</v>
@@ -4522,7 +4850,7 @@
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="J84">
         <v>4906.7700000000004</v>
@@ -4563,7 +4891,7 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="J85">
         <v>4907.7700000000004</v>
@@ -4604,7 +4932,7 @@
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="J86">
         <v>4908.7700000000004</v>
@@ -4645,7 +4973,7 @@
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="J87">
         <v>4905.7700000000004</v>
@@ -4686,7 +5014,7 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="J88">
         <v>4905.7700000000004</v>
@@ -4727,7 +5055,7 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="J89">
         <v>4906.7700000000004</v>
@@ -4768,7 +5096,7 @@
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="J90">
         <v>4907.7700000000004</v>
@@ -4809,7 +5137,7 @@
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="J91">
         <v>4908.7700000000004</v>
@@ -4850,7 +5178,7 @@
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="J92">
         <v>4905.7700000000004</v>
@@ -4891,7 +5219,7 @@
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="J93">
         <v>4905.7700000000004</v>
@@ -4932,7 +5260,7 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="J94">
         <v>4906.7700000000004</v>
@@ -4973,7 +5301,7 @@
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="J95">
         <v>4907.7700000000004</v>
@@ -5014,7 +5342,7 @@
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="J96">
         <v>4908.7700000000004</v>
@@ -5055,7 +5383,7 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="J97">
         <v>4905.7700000000004</v>
@@ -5096,7 +5424,7 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="J98">
         <v>4905.7700000000004</v>
@@ -5137,7 +5465,7 @@
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="J99">
         <v>4906.7700000000004</v>
@@ -5178,7 +5506,7 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="J100">
         <v>4907.7700000000004</v>
@@ -5219,7 +5547,7 @@
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="J101">
         <v>4908.7700000000004</v>
@@ -5260,7 +5588,7 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="J102">
         <v>4905.7700000000004</v>
@@ -5301,7 +5629,7 @@
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="J103">
         <v>4905.7700000000004</v>
@@ -5342,7 +5670,7 @@
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="J104">
         <v>4906.7700000000004</v>
@@ -5383,7 +5711,7 @@
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="J105">
         <v>4907.7700000000004</v>
@@ -5424,7 +5752,7 @@
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="J106">
         <v>4908.7700000000004</v>
@@ -5465,7 +5793,7 @@
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="J107">
         <v>4905.7700000000004</v>
@@ -5506,7 +5834,7 @@
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="J108">
         <v>4905.7700000000004</v>
@@ -5547,7 +5875,7 @@
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="J109">
         <v>4906.7700000000004</v>
@@ -5588,7 +5916,7 @@
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="J110">
         <v>4907.7700000000004</v>
@@ -5629,7 +5957,7 @@
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="J111">
         <v>4908.7700000000004</v>
